--- a/Model_Selection/Annotated_files/results_meta-llama-Llama-2-7b-chat-hf_20samples_33seed_annotated.xlsx
+++ b/Model_Selection/Annotated_files/results_meta-llama-Llama-2-7b-chat-hf_20samples_33seed_annotated.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Annica\PycharmProjects\master_thesis\Model_Selection\Annotated_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB93C6AD-987F-4B71-AFB9-E6C04FE6D8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="results_meta-llama-Llama-2-7b-c" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="results_meta-llama-Llama-2-7b-c" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -20,36 +36,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
-  <si>
-    <t xml:space="preserve">input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pred_meta-llama/Llama-2-7b-chat-hf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grammatical correctness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Language consistency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hallucination detection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content correctness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Token limitation</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>pred_meta-llama/Llama-2-7b-chat-hf</t>
+  </si>
+  <si>
+    <t>Grammatical correctness</t>
+  </si>
+  <si>
+    <t>Language consistency</t>
+  </si>
+  <si>
+    <t>Hallucination detection</t>
+  </si>
+  <si>
+    <t>Content correctness</t>
+  </si>
+  <si>
+    <t>Token limitation</t>
   </si>
   <si>
     <t xml:space="preserve">Identify which instrument is string or percussion: Kenong, Zeze </t>
   </si>
   <si>
-    <t xml:space="preserve">Zeze is string, Kenong is percussion.</t>
+    <t>Zeze is string, Kenong is percussion.</t>
   </si>
   <si>
     <t xml:space="preserve">  Identify which instrument is string or percussion: Kenong, Zeze
@@ -67,7 +83,7 @@
     <t xml:space="preserve">Could you clarify the origin time of the M 4.7 - 19km NW of Truckee, CA for me? </t>
   </si>
   <si>
-    <t xml:space="preserve">Certainly, the M 4.7 - 19km NW of Truckee, CA's origin time is 2021-05-07 04:35:14.150 UTC.</t>
+    <t>Certainly, the M 4.7 - 19km NW of Truckee, CA's origin time is 2021-05-07 04:35:14.150 UTC.</t>
   </si>
   <si>
     <t xml:space="preserve">  The M 4.7 earthquake that occurred on December 22, 2022, at 18:50:33 UTC, had its epicenter located approximately 19 kilometers northwest of Truckee, California. Here is the origin time of the earthquake in various time zones:
@@ -81,7 +97,7 @@
     <t xml:space="preserve">Create a cocktail recipe. </t>
   </si>
   <si>
-    <t xml:space="preserve">**Summer Breeze Cocktail**
+    <t>**Summer Breeze Cocktail**
 Ingredients:
 - 2 ounces Vodka
 - 1 ounce Pineapple Juice
@@ -122,7 +138,7 @@
 Will use in site response analysis, the same like (Modulus for clay (Seed and Sun, 1989) and damping for clay (Idriss 1990). </t>
   </si>
   <si>
-    <t xml:space="preserve">If you use STRATA code (https://nees.org/resources/strata), it has several shear modulus and damping curve as function of plastic index and others geotechnical parameters.</t>
+    <t>If you use STRATA code (https://nees.org/resources/strata), it has several shear modulus and damping curve as function of plastic index and others geotechnical parameters.</t>
   </si>
   <si>
     <t xml:space="preserve"> 10.1306/74D72395-2B21-11D7-BE86-00155E99796B
@@ -135,7 +151,7 @@
     <t xml:space="preserve">Is autotrophic metabolism a narrower category or subdiscipline within phototroph diversity and metabolism in geoscience? </t>
   </si>
   <si>
-    <t xml:space="preserve">False.
+    <t>False.
 The definition of phototroph diversity and metabolism is that 1, while the concept autotrophic metabolism means that 1</t>
   </si>
   <si>
@@ -147,7 +163,7 @@
     <t xml:space="preserve">Based on the paragraph given, list down some important points regarding Bhopal cityBhopal (/boʊˈpɑːl/; Hindi: [bʱoːpaːl] ( listen)) is the capital city of the Indian state of Madhya Pradesh and the administrative headquarters of both Bhopal district and Bhopal division. It is known as the City of Lakes due to its various natural and artificial lakes. It is also one of the greenest cities in India. It is the 16th largest city in India and 131st in the world. After the formation of Madhya Pradesh, Bhopal was part of the Sehore district. It was bifurcated in 1972 and a new district, Bhopal, was formed. Flourishing around 1707, the city was the capital of the former Bhopal State, a princely state of the British ruled by the Nawabs of Bhopal. Numerous heritage structures from this period include the Taj-ul-Masajid and Taj Mahal palace. In 1984, the city was struck by the Bhopal disaster, one of the worst industrial disasters in history </t>
   </si>
   <si>
-    <t xml:space="preserve">1.	Bhopal is the capital city of Madhya Pradesh in India, and the administrative headquarters of both Bhopal district and Bhopal division.
+    <t>1.	Bhopal is the capital city of Madhya Pradesh in India, and the administrative headquarters of both Bhopal district and Bhopal division.
 2.	Bhopal is also known as “The city of lakes” . It is also the 16th largest city in India and 131st in the world.
 3.	Bhopal was formed as a new district from existing Sehore district in 1972.
 4.	In 1707 Bhopal was the capital of the former Bhopal State, which British ruled by the Nawabs of Bhopal.
@@ -169,7 +185,7 @@
 Middle oceanic ridges are places where new oceanic crust is generated. Does anybody know what happens to these spreading ridges when the oceanic basin starts to be closed? Is there any possibility that the once-active middle oceanic ridge be swallowed into the mantle at a oceanic-continental plate convergence boundary? </t>
   </si>
   <si>
-    <t xml:space="preserve">Ridge subduction is an obvious phenomena, as oldest ocean floor is only 200-180Mys. And is possibly one of the mechanism to justify the magmatism within the near-trench fore-arc region, which is otherwise a refrigerated zone. We recently, discussed this subject in Early Cretaceous ridge subduction beneath southern Alaska: I...</t>
+    <t>Ridge subduction is an obvious phenomena, as oldest ocean floor is only 200-180Mys. And is possibly one of the mechanism to justify the magmatism within the near-trench fore-arc region, which is otherwise a refrigerated zone. We recently, discussed this subject in Early Cretaceous ridge subduction beneath southern Alaska: I...</t>
   </si>
   <si>
     <t xml:space="preserve"> 
@@ -181,7 +197,7 @@
     <t xml:space="preserve">Could you extract the terms related to earth science mentioned in this passage? The passage: The Christian Democratic Party of Honduras (Spanish: Partido Demócrata Cristiano de Honduras), known by the abbreviation DC, is a political party in Honduras. At the legislative elections, held on 25 November 2001, DC won 3.7% of the popular vote and 3 out of 128 seats in the National Congress. Its candidate at the presidential elections, Marco Orlando Iriarte, won 1.0% of the vote. </t>
   </si>
   <si>
-    <t xml:space="preserve">Certainly, the mentioned terms related to earth science in the passage are: Spanish, political party, Honduras, legislative elections, held on 25 November 2001, National Congress, presidential.</t>
+    <t>Certainly, the mentioned terms related to earth science in the passage are: Spanish, political party, Honduras, legislative elections, held on 25 November 2001, National Congress, presidential.</t>
   </si>
   <si>
     <t xml:space="preserve">  Sure! Here are the terms related to earth science mentioned in the passage:
@@ -195,7 +211,7 @@
     <t xml:space="preserve">What terms in this passage have a connection to earth science? The passage: The music was composed by Mani Sharma and released by Aditya Music. Best First Film of a Director - V. V. Vinayak; Best Editor - Gowtham Raju; Special Jury Award - Jr. NTR; Best Lyricist - Chandrabose. </t>
   </si>
   <si>
-    <t xml:space="preserve">The terms connected to earth science in the passage include: Mani Sharma, Aditya Music, Best First Film of a Director, V. V. Vinayak, Best Editor, Special Jury Award, Jr. NTR, Best Lyricist, Chandrabose.</t>
+    <t>The terms connected to earth science in the passage include: Mani Sharma, Aditya Music, Best First Film of a Director, V. V. Vinayak, Best Editor, Special Jury Award, Jr. NTR, Best Lyricist, Chandrabose.</t>
   </si>
   <si>
     <t xml:space="preserve">  There are no terms in this passage that have a connection to earth science. The passage is about the awards given to people in the film industry, and does not mention any terms related to the study of the Earth or its processes.</t>
@@ -204,7 +220,7 @@
     <t xml:space="preserve">Please tell me a synonym for the word 'coelurosaurs'. </t>
   </si>
   <si>
-    <t xml:space="preserve">You should see coelurosauria.</t>
+    <t>You should see coelurosauria.</t>
   </si>
   <si>
     <t xml:space="preserve">  Coelurosaurs are a group of theropod dinosaurs that are characterized by their lightweight, feathered bodies and long tails. They are known for their agility and speed, and are often depicted as having a more bird-like appearance than other theropods.
@@ -217,7 +233,7 @@
     <t xml:space="preserve">What do giant Pandas eats?The giant panda is a bear species endemic to China. It is a Carnivora, the giant panda is a folivore, with bamboo shoots and leaves making up more than 99% of its diet. </t>
   </si>
   <si>
-    <t xml:space="preserve">the giant panda is a folivore, with bamboo shoots and leaves making up more than 99% of its diet.</t>
+    <t>the giant panda is a folivore, with bamboo shoots and leaves making up more than 99% of its diet.</t>
   </si>
   <si>
     <t xml:space="preserve">  Giant pandas are unique in their diet, as they primarily feed on bamboo. Bamboo makes up more than 99% of a giant panda's diet. They eat different parts of the bamboo plant, including the stems, leaves, and shoots. In fact, a giant panda can eat up to 20-30 kilograms (44-66 pounds) of bamboo every day! This is a lot of food, and it's important for the panda to have a large stomach to digest it all. In addition to bamboo, giant pandas may also eat small amounts of other plants and insects. However, bamboo is their main source of food and plays a crucial role in their survival. [1]</t>
@@ -226,7 +242,7 @@
     <t xml:space="preserve">Which of the following sentences about infrared waves is true?They can be used to treat cancerous tumours.They can be used to make images of bones, through the skin.They can be used for cooking.They are used to send communication signals to satellites. </t>
   </si>
   <si>
-    <t xml:space="preserve">The correct answer is C because: Infrared waves are the type of electromagnetic wave emitted by objects (the hotter the object, the more IR it emits).
+    <t>The correct answer is C because: Infrared waves are the type of electromagnetic wave emitted by objects (the hotter the object, the more IR it emits).
 When infrared waves of sufficient intensity are incident on an object, they cause it to heat up. Infrared waves can, therefore, be used for cooking in ovens.
 Some students may believe that only microwaves can be used for cooking...clearly they have never used an oven or a toaster.
 This is more apparent in the Thermal Processes topic, 2.3. A is incorrect as x-rays and γ-rays can be used to treat tumours.
@@ -246,7 +262,7 @@
     <t xml:space="preserve">Please tell me the related paper of the Armellinoite-(Ce). </t>
   </si>
   <si>
-    <t xml:space="preserve">The Armellinoite-(Ce)'s related paper is 
+    <t>The Armellinoite-(Ce)'s related paper is 
 1. [START_REF]Cámara, F., Ciriotti, M.E., Kolitsch, U., Bosi, F., Bittarello, E., Brizio, P., Vignola, P. and Blass, G. (2018) Armellinoite-(Ce), IMA 2018-094. CNMNC Newsletter No. 46, December 2018, page 1185. European Journal of Mineralogy, 30, 1181–1189.[END_REF]
 2. [START_REF]Cámara, F., Ciriotti, M.E., Kolitsch, U., Bosi, F., Bittarello, E., Brizio, P., Vignola, P., Blass, G. (2021): Armellinoite-(Ce), Ca[END_REF]
 3. [START_REF]O, a new mineral species isostructural with pottsite, (Pb3Bi)Bi(VO4)4⋅H2O. Mineralogical Magazine: 85, 901-909.[END_REF]</t>
@@ -260,7 +276,7 @@
     <t xml:space="preserve">How do geologists use hydrological data and modeling to support water resources planning and decision-making processes? </t>
   </si>
   <si>
-    <t xml:space="preserve">Geologists use hydrological data and modeling to support water resources planning and decision-making processes in several ways, including:
+    <t>Geologists use hydrological data and modeling to support water resources planning and decision-making processes in several ways, including:
 1. Assessing water availability: Geologists use hydrological models to assess the quantity and quality of water available in a region. This information helps water managers to plan for water allocation, identify risks related to water scarcity, and ensure that the water supply is sustainable.
 2. Identifying groundwater recharge areas: Geologists use hydrological data to identify areas where groundwater can be replenished. This information helps water managers to develop strategies to recharge groundwater resources and avoid depletion.
 3. Evaluating water quality: Hydrological data and modeling are used to evaluate the quality of water in a region. This information helps water managers to identify sources of contamination, develop strategies to protect water quality, and ensure that water meets regulatory standards.
@@ -278,7 +294,7 @@
 Biological Evolution The scientific theory of evolution by natural selection was proposed by Charles Darwin its book On the Origin of Species (1859). BEFORE DARWIN : Fixism and transformism are adopted by the scientifics to explain the living beings. DARWIN : On the Origin of Species (1859): (Introduction ; CHAPTER I. Variation under Domestication. CHAPTER II. Variation under Nature. CHAPTER III. Struggle for Existence. CHAPTER IV. Natural Selection. CHAPTER V. Laws of Variation. CHAPTER VI. Difficulties on Theory. CHAPTER VII. Instinct. CHAPTER VIII. Hybridism. CHAPTER IX. On the Imperfection of the Geological Record. CHAPTER X. On the Geological Succession of Biological Beings. CHAPTER XI. Geographical Distribution. CHAPTER XII. Geographical Distribution—continued CHAPTER XIII. Mutual Affinities of Organic Beings: Morphology: Embryology: Rudimentary Organs. CHAPTER XIV. Recapitulation and Conclusion. Darwin has published a large number of books and articles on geology, biology, ect .. Today, evolution (Synthetic Theory of Evolution) is based on a very large number of specialty : Paleontology and other Earth sciences, taxonomic, Molecular biology, Ethology, Ecology, Physiology, Cel. Biology, .......... TODAY, HOW RESEARCHERS SEE THE THEORY OF EVOLUTION IN THE LIGHT OF INNUMERABLE DISCOVERIES OF MODERN SCIENCE? </t>
   </si>
   <si>
-    <t xml:space="preserve">Just a thought; evolution is an essential aspect of a dynamic world, i.e., in which time exists. Let us assume two states, A and B occur at different times. From a dynamics point of view, a stable system will reach an equilibrium point after the introduction of certain disruptions in the system. The disruptions cause the system to undergo transient state, i.e., an evolution from one point (A) to another (B) until it reaches an equilibrium point, thereafter the system state becaomes constant if no further disruption is introduced to it. A world can be viewed as a system with a collection of all matters (animated and unanimated) and energy (in all sorts of forms). From time to time certain species of plants, animals or insects emerge while others disappear, however the total mass-energy remains the same in the system. The animals or plants that continue to exist from state to state must evolve according to the criterion (or criteria) imposed by the system, otherwise, they too will completely disappear and replaced by other forms of objects, whose existence fulfill the crietrion set by the system. The question now becomes, in our world what is this criterion? If we know about this criterion, then it is possible to predict our next evelotuion, and the evolution of our enviornments even before they take place.</t>
+    <t>Just a thought; evolution is an essential aspect of a dynamic world, i.e., in which time exists. Let us assume two states, A and B occur at different times. From a dynamics point of view, a stable system will reach an equilibrium point after the introduction of certain disruptions in the system. The disruptions cause the system to undergo transient state, i.e., an evolution from one point (A) to another (B) until it reaches an equilibrium point, thereafter the system state becaomes constant if no further disruption is introduced to it. A world can be viewed as a system with a collection of all matters (animated and unanimated) and energy (in all sorts of forms). From time to time certain species of plants, animals or insects emerge while others disappear, however the total mass-energy remains the same in the system. The animals or plants that continue to exist from state to state must evolve according to the criterion (or criteria) imposed by the system, otherwise, they too will completely disappear and replaced by other forms of objects, whose existence fulfill the crietrion set by the system. The question now becomes, in our world what is this criterion? If we know about this criterion, then it is possible to predict our next evelotuion, and the evolution of our enviornments even before they take place.</t>
   </si>
   <si>
     <t xml:space="preserve"> 1- Paleontology and other Earth sciences: The fossil record provides a chronological framework for understanding the history of life on Earth. Fossils of extinct species, along with their geological context, help scientists reconstruct the evolutionary history of life on Earth. 2- Taxonomy: The discovery of new species and the reevaluation of existing ones have led to a more accurate understanding of the relationships between different organisms. 3- Molecular biology: The study of DNA and protein sequences has revealed the genetic relationships between different organisms, providing strong evidence for evolution. 4- Ethology: The study of animal behavior has revealed the complex social interactions and communication systems of many species, which can only be explained by evolution. 5- Ecology: The study of ecosystems has revealed the intricate relationships between different species and their environment, which are essential for understanding the evolution of life on Earth. 6- Physi</t>
@@ -287,7 +303,7 @@
     <t xml:space="preserve">What mathematical techniques are employed in the analysis and interpretation of microseismic data for reservoir monitoring? </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Signal processing: This involves techniques for filtering, time-domain and frequency-domain analysis, normalization, and interpretation of the recorded microseismic signals.
+    <t>1. Signal processing: This involves techniques for filtering, time-domain and frequency-domain analysis, normalization, and interpretation of the recorded microseismic signals.
 2. Geostatistics: This involves spatial analysis to characterize the distribution of microseismic events in the reservoir, including clustering, spatial correlation, variogram analysis, and kriging interpolation.
 3. Inversion techniques: This involves the inversion of microseismic data to obtain information on the location, geometry, and magnitude of the source of events, based on models and assumptions about the velocity structure of the subsurface.
 4. Statistical analysis: This involves the use of statistical methods for data reduction, hypothesis testing, regression analysis, and modeling of the relationship between microseismic data and other variables of interest, such as reservoir properties and production performance.
@@ -303,7 +319,7 @@
     <t xml:space="preserve">Name three common sources of energy that can be used to generate electricity. </t>
   </si>
   <si>
-    <t xml:space="preserve">Three common sources of energy that can be used to generate electricity are:
+    <t>Three common sources of energy that can be used to generate electricity are:
 1. Fossil fuels: Coal, oil, and natural gas are the most widely-used sources for generating electricity. They are burned in power plants to heat water and create steam, which drives turbines to generate electricity.
 2. Renewable energy: Renewable sources such as solar, wind, geothermal, hydroelectric, and biomass can also be used to generate electricity. Solar panels, wind turbines, and hydroelectric dams use the energy from the sun, wind, and water to create electricity, while geothermal power plants use the heat from the earth.
 3. Nuclear energy: Nuclear energy is another common source of electricity. Nuclear power plants use the heat generated from nuclear reactions to create steam, which drives turbines to generate electricity.</t>
@@ -318,7 +334,7 @@
     <t xml:space="preserve">Run a sentiment analysis on the tweet.Love the new update! </t>
   </si>
   <si>
-    <t xml:space="preserve">The sentiment analysis of the tweet "Love the new update!" is positive.</t>
+    <t>The sentiment analysis of the tweet "Love the new update!" is positive.</t>
   </si>
   <si>
     <t xml:space="preserve">  Using the sentiment analysis tool in the Google Cloud Natural Language API, we can analyze the sentiment of the tweet and determine if it is positive, negative, or neutral. Here are the steps to run a sentiment analysis on the tweet:
@@ -361,39 +377,24 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve">C</t>
+    <t>C</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Helpfulness</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -405,7 +406,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -413,103 +414,82 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -562,29 +542,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="40.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="1" width="11.53"/>
+    <col min="1" max="3" width="40.81640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,10 +586,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="200.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -620,23 +602,26 @@
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="189.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="212.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -646,23 +631,26 @@
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="266.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="300" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -672,23 +660,26 @@
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="222.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="250" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -698,23 +689,26 @@
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="233.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="262.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -724,23 +718,26 @@
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="222.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="250" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -750,23 +747,26 @@
       <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="233.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="275" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -776,23 +776,26 @@
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="123.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="137.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -802,23 +805,26 @@
       <c r="C9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="79" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -828,23 +834,26 @@
       <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="211.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="237.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -854,23 +863,26 @@
       <c r="C11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="145.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="162.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -880,23 +892,26 @@
       <c r="C12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="255.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="287.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -906,23 +921,26 @@
       <c r="C13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="189.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="212.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
@@ -932,23 +950,26 @@
       <c r="C14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="443" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -958,23 +979,26 @@
       <c r="C15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="355" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="400" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
@@ -984,23 +1008,26 @@
       <c r="C16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="333" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="375" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
@@ -1010,23 +1037,26 @@
       <c r="C17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G17" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="233.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="262.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -1036,23 +1066,26 @@
       <c r="C18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="288.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="325" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
@@ -1062,23 +1095,26 @@
       <c r="C19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="222.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="250" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
@@ -1088,23 +1124,26 @@
       <c r="C20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="299.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="337.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
@@ -1114,49 +1153,55 @@
       <c r="C21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="1" t="n">
-        <f aca="false">SUM(D2:D21)</f>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="1">
+        <f>SUM(D2:D21)</f>
         <v>37</v>
       </c>
-      <c r="E22" s="1" t="n">
-        <f aca="false">SUM(E2:E21)</f>
+      <c r="E22" s="1">
+        <f>SUM(E2:E21)</f>
         <v>37</v>
       </c>
-      <c r="F22" s="1" t="n">
-        <f aca="false">SUM(F2:F21)</f>
+      <c r="F22" s="1">
+        <f>SUM(F2:F21)</f>
         <v>26</v>
       </c>
-      <c r="G22" s="1" t="n">
-        <f aca="false">SUM(G2:G21)</f>
+      <c r="G22" s="1">
+        <f>SUM(G2:G21)</f>
         <v>25</v>
       </c>
-      <c r="H22" s="1" t="n">
-        <f aca="false">SUM(H2:H21)</f>
+      <c r="H22" s="1">
+        <f>SUM(H2:H21)</f>
+        <v>24</v>
+      </c>
+      <c r="I22" s="1">
+        <f>SUM(I2:I21)</f>
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
